--- a/biology/Botanique/Barbeyaceae/Barbeyaceae.xlsx
+++ b/biology/Botanique/Barbeyaceae/Barbeyaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Barbeyaceae sont une famille de plantes à fleurs de l'ordre des Rosales. Elle ne comprend qu'une seule espèce, Barbeya oleoides, un petit arbre ressemblant à un olivier, originaire du nord-est de l'Afrique et de l'Arabie.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type  Barbeya nommé en hommage au botaniste et homme politique suisse William Barbey (1842–1914). Il herborisa en région méditerranéenne et fonda en 1885 la revue botanique « Bulletin de l'Herbier Boissier ».
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1], cette famille était placée l'ordre des Urticales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille était placée l'ordre des Urticales.
 La classification phylogénétique la situe maintenant dans l'ordre des Rosales.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010)[2], Angiosperm Phylogeny Website                        (31 mai 2010)[3], NCBI  (31 mai 2010)[4] et DELTA Angio           (31 mai 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010), Angiosperm Phylogeny Website                        (31 mai 2010), NCBI  (31 mai 2010) et DELTA Angio           (31 mai 2010) :
 genre Barbeya Schweinf. ex Penzig (1892)</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010)[2], NCBI  (31 mai 2010)[4], DELTA Angio           (31 mai 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (31 mai 2010), NCBI  (31 mai 2010), DELTA Angio           (31 mai 2010) :
 Barbeya Schweinf. ex Penzig (1892)
 Barbeya oleoides Schweinf. (1892)</t>
         </is>
